--- a/projects_using_wgs.xlsb.xlsx
+++ b/projects_using_wgs.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Masterthesis\Excel-Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5356120B-70C5-473D-A401-11EF19EA1390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8A7E0-AC72-4939-901F-824DD03E81FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31D825F3-97A5-43D3-A63E-2A5DA531D324}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{31D825F3-97A5-43D3-A63E-2A5DA531D324}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4431" uniqueCount="1965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="1965">
   <si>
     <t>WGS</t>
   </si>
@@ -6630,8 +6630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC856E4F-72DF-4947-918B-03358C2C5A38}">
   <dimension ref="A1:V1455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48860,8 +48860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1936E02-8546-497F-B2D7-65D4AB0D34CF}">
   <dimension ref="A1:N327"/>
   <sheetViews>
-    <sheetView topLeftCell="A230" zoomScale="190" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+    <sheetView tabSelected="1" topLeftCell="A315" zoomScale="190" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48947,6 +48947,9 @@
       <c r="G6" t="s">
         <v>33</v>
       </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
       <c r="I6" s="22">
         <v>42540</v>
       </c>
@@ -48990,6 +48993,9 @@
       <c r="G7" t="s">
         <v>33</v>
       </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
       <c r="I7" s="22">
         <v>42540</v>
       </c>
@@ -49033,6 +49039,9 @@
       <c r="G8" t="s">
         <v>33</v>
       </c>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
       <c r="I8" s="22">
         <v>42540</v>
       </c>
@@ -49076,6 +49085,9 @@
       <c r="G9" t="s">
         <v>33</v>
       </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
       <c r="I9" s="22">
         <v>42540</v>
       </c>
@@ -49119,6 +49131,9 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="22">
         <v>42540</v>
       </c>
@@ -49162,6 +49177,9 @@
       <c r="G11" t="s">
         <v>33</v>
       </c>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
       <c r="I11" s="22">
         <v>42540</v>
       </c>
@@ -49205,6 +49223,9 @@
       <c r="G12" t="s">
         <v>33</v>
       </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="22">
         <v>42540</v>
       </c>
@@ -49248,6 +49269,9 @@
       <c r="G13" t="s">
         <v>33</v>
       </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="22">
         <v>42540</v>
       </c>
@@ -49291,6 +49315,9 @@
       <c r="G14" t="s">
         <v>33</v>
       </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
       <c r="I14" s="22">
         <v>42540</v>
       </c>
@@ -49334,6 +49361,9 @@
       <c r="G15" t="s">
         <v>33</v>
       </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
       <c r="I15" s="22">
         <v>42540</v>
       </c>
@@ -49377,6 +49407,9 @@
       <c r="G16" t="s">
         <v>33</v>
       </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
       <c r="I16" s="22">
         <v>42540</v>
       </c>
@@ -49420,6 +49453,9 @@
       <c r="G17" t="s">
         <v>33</v>
       </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
       <c r="I17" s="22">
         <v>42540</v>
       </c>
@@ -49463,6 +49499,9 @@
       <c r="G18" t="s">
         <v>33</v>
       </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
       <c r="I18" s="22">
         <v>42540</v>
       </c>
@@ -49506,6 +49545,9 @@
       <c r="G19" t="s">
         <v>33</v>
       </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
       <c r="I19" s="22">
         <v>42540</v>
       </c>
@@ -49549,6 +49591,9 @@
       <c r="G20" t="s">
         <v>33</v>
       </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
       <c r="I20" s="22">
         <v>42540</v>
       </c>
@@ -49592,6 +49637,9 @@
       <c r="G21" t="s">
         <v>33</v>
       </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
       <c r="I21" s="22">
         <v>42540</v>
       </c>
@@ -49635,6 +49683,9 @@
       <c r="G22" t="s">
         <v>33</v>
       </c>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
       <c r="I22" s="22">
         <v>42540</v>
       </c>
@@ -49678,6 +49729,9 @@
       <c r="G23" t="s">
         <v>33</v>
       </c>
+      <c r="H23" t="s">
+        <v>33</v>
+      </c>
       <c r="I23" s="22">
         <v>42540</v>
       </c>
@@ -49721,6 +49775,9 @@
       <c r="G24" t="s">
         <v>33</v>
       </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
       <c r="I24" s="22">
         <v>42540</v>
       </c>
@@ -49764,6 +49821,9 @@
       <c r="G25" t="s">
         <v>33</v>
       </c>
+      <c r="H25" t="s">
+        <v>33</v>
+      </c>
       <c r="I25" s="22">
         <v>42540</v>
       </c>
@@ -49807,6 +49867,9 @@
       <c r="G26" t="s">
         <v>33</v>
       </c>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
       <c r="I26" s="22">
         <v>42540</v>
       </c>
@@ -49850,6 +49913,9 @@
       <c r="G27" t="s">
         <v>33</v>
       </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
       <c r="I27" s="22">
         <v>42540</v>
       </c>
@@ -49893,6 +49959,9 @@
       <c r="G28" t="s">
         <v>33</v>
       </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
       <c r="I28" s="22">
         <v>42540</v>
       </c>
@@ -49936,6 +50005,9 @@
       <c r="G29" t="s">
         <v>33</v>
       </c>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
       <c r="I29" s="22">
         <v>42540</v>
       </c>
@@ -49979,6 +50051,9 @@
       <c r="G30" t="s">
         <v>33</v>
       </c>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
       <c r="I30" s="22">
         <v>42540</v>
       </c>
@@ -50022,6 +50097,9 @@
       <c r="G31" t="s">
         <v>33</v>
       </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
       <c r="I31" s="22">
         <v>42540</v>
       </c>
@@ -50065,6 +50143,9 @@
       <c r="G32" t="s">
         <v>33</v>
       </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
       <c r="I32" s="22">
         <v>42540</v>
       </c>
@@ -50108,6 +50189,9 @@
       <c r="G33" t="s">
         <v>33</v>
       </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
       <c r="I33" s="22">
         <v>42540</v>
       </c>
@@ -50151,6 +50235,9 @@
       <c r="G34" t="s">
         <v>33</v>
       </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
       <c r="I34" s="22">
         <v>42540</v>
       </c>
@@ -50194,6 +50281,9 @@
       <c r="G35" t="s">
         <v>33</v>
       </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
       <c r="I35" s="22">
         <v>42540</v>
       </c>
@@ -50237,6 +50327,9 @@
       <c r="G36" t="s">
         <v>33</v>
       </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
       <c r="I36" s="22">
         <v>42540</v>
       </c>
@@ -50278,6 +50371,9 @@
         <v>1891</v>
       </c>
       <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
         <v>33</v>
       </c>
       <c r="I37" s="22">
